--- a/biology/Médecine/Classe_ATC_D03/Classe_ATC_D03.xlsx
+++ b/biology/Médecine/Classe_ATC_D03/Classe_ATC_D03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC D03, dénommée « Préparations pour le traitement des plaies et ulcères », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QD03[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique D de la classification, intitulé « Dermatologie ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC D03, dénommée « Préparations pour le traitement des plaies et ulcères », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QD03. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique D de la classification, intitulé « Dermatologie ».
 </t>
         </is>
       </c>
@@ -513,10 +525,49 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>D03AA Préparations à base d'huile de foie de morue
-Vide
-D03AX Autres cicatrisants
-D03AX01 Cadexomère iodure (en)
+          <t>D03AA Préparations à base d'huile de foie de morue</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Vide</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D03</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>D03A Cicatrisants</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D03AX Autres cicatrisants</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D03AX01 Cadexomère iodure (en)
 D03AX02 Dextranomère (en)
 D03AX03 Dexpanthénol
 D03AX04 Pantothénate de calcium
@@ -531,34 +582,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Classe_ATC_D03</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classe_ATC_D03</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>D03B Enzymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D03BA Enzymes protéolytiques
-D03BA01 Trypsine
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D03BA Enzymes protéolytiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D03BA01 Trypsine
 D03BA02 Collagénase
 D03BA03 Bromélaïnes
 D03BA52 Collagénase, associations</t>
